--- a/final-project-files/pew-data/voiceData2019.xlsx
+++ b/final-project-files/pew-data/voiceData2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarahpearman/Documents/data-stories/final-project-files/pew-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B49860D-93FF-3E4D-A93B-FD6719B64751}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD6D891-34C3-AA47-AE09-D94DE28DE912}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="2360" windowWidth="27640" windowHeight="16940" activeTab="5" xr2:uid="{FC0C6CDC-5AA1-634B-A364-15CBCD170F7C}"/>
+    <workbookView xWindow="10760" yWindow="460" windowWidth="27640" windowHeight="16420" activeTab="4" xr2:uid="{FC0C6CDC-5AA1-634B-A364-15CBCD170F7C}"/>
   </bookViews>
   <sheets>
     <sheet name="HOMEASSIST1" sheetId="1" r:id="rId1"/>
@@ -658,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6404F8E-37E7-2D4D-804A-051AA0AD3228}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -706,7 +706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E3D218F-75FD-4348-844B-65E6408B17FF}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
